--- a/MULTIVAR/RAW_DATA/datos_osos.xlsx
+++ b/MULTIVAR/RAW_DATA/datos_osos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis_cursos_y_seminarios\Curso_analisis_multivariado_MCE_Enero_junio2017\Tareas\Tareas\Tarea4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quaph\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7469BC-99FD-4D4C-AB7A-8D70020CB6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,127 +367,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="11.42578125" style="2"/>
+    <col min="1" max="4" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>141</v>
+      </c>
       <c r="B2" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>140</v>
+      </c>
+      <c r="B3" s="2">
         <v>168</v>
       </c>
-      <c r="E2" s="2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="C3" s="2">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>145</v>
+      </c>
+      <c r="B4" s="2">
+        <v>162</v>
+      </c>
+      <c r="C4" s="2">
+        <v>172</v>
+      </c>
+      <c r="D4" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>146</v>
+      </c>
+      <c r="B5" s="2">
+        <v>159</v>
+      </c>
+      <c r="C5" s="2">
+        <v>176</v>
+      </c>
+      <c r="D5" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>150</v>
+      </c>
+      <c r="B6" s="2">
+        <v>158</v>
+      </c>
+      <c r="C6" s="2">
+        <v>168</v>
+      </c>
+      <c r="D6" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>142</v>
+      </c>
+      <c r="B7" s="2">
         <v>140</v>
       </c>
-      <c r="C3" s="2">
-        <v>168</v>
-      </c>
-      <c r="D3" s="2">
-        <v>174</v>
-      </c>
-      <c r="E3" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>145</v>
-      </c>
-      <c r="C4" s="2">
-        <v>162</v>
-      </c>
-      <c r="D4" s="2">
-        <v>172</v>
-      </c>
-      <c r="E4" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>146</v>
-      </c>
-      <c r="C5" s="2">
-        <v>159</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C7" s="2">
+        <v>178</v>
+      </c>
+      <c r="D7" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>139</v>
+      </c>
+      <c r="B8" s="2">
+        <v>171</v>
+      </c>
+      <c r="C8" s="2">
         <v>176</v>
       </c>
-      <c r="E5" s="2">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>150</v>
-      </c>
-      <c r="C6" s="2">
-        <v>158</v>
-      </c>
-      <c r="D6" s="2">
-        <v>168</v>
-      </c>
-      <c r="E6" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>142</v>
-      </c>
-      <c r="C7" s="2">
-        <v>140</v>
-      </c>
-      <c r="D7" s="2">
-        <v>178</v>
-      </c>
-      <c r="E7" s="2">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>139</v>
-      </c>
-      <c r="C8" s="2">
-        <v>171</v>
-      </c>
       <c r="D8" s="2">
-        <v>176</v>
-      </c>
-      <c r="E8" s="2">
         <v>175</v>
       </c>
     </row>
